--- a/maintain.xlsx
+++ b/maintain.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Path</t>
   </si>
@@ -47,36 +47,6 @@
   </si>
   <si>
     <t>NewName</t>
-  </si>
-  <si>
-    <t>./Update/Reset 90467591 CRYPTO George Smith lreyes@udesa.edu.ar 550123608712 SortinoRatio 2022-09-22.xlsx</t>
-  </si>
-  <si>
-    <t>Reset</t>
-  </si>
-  <si>
-    <t>90467591</t>
-  </si>
-  <si>
-    <t>CRYPTO</t>
-  </si>
-  <si>
-    <t>George Smith</t>
-  </si>
-  <si>
-    <t>lreyes@udesa.edu.ar</t>
-  </si>
-  <si>
-    <t>550123608712</t>
-  </si>
-  <si>
-    <t>SortinoRatio</t>
-  </si>
-  <si>
-    <t>2022-09-22</t>
-  </si>
-  <si>
-    <t>./Update/CRYPTO George Smith lreyes@udesa.edu.ar 550123608712 SortinoRatio 2022-09-22.xlsx</t>
   </si>
 </sst>
 </file>
@@ -434,13 +404,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L2"/>
+  <dimension ref="B1:L1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="2:12">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -473,44 +443,6 @@
       </c>
       <c r="L1" s="1" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2">
-        <v>550033141121</v>
-      </c>
-      <c r="L2" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
